--- a/Output/绝巴哈诗人编辑.xlsx
+++ b/Output/绝巴哈诗人编辑.xlsx
@@ -141,12 +141,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能id查询网站推荐
+https://ff14.huijiwiki.com/wiki/Action:7548
+找到对应技能,看网址url后面的Action:后的数字即可</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>作者:</t>
   </si>
@@ -463,16 +487,25 @@
   <si>
     <t>Action:SwitchDOT:是否允许使用DOT</t>
   </si>
+  <si>
+    <t>Action:SwitchAOE:允许AOE</t>
+  </si>
+  <si>
+    <t>Action:CastAbility:优先使用指定能力技</t>
+  </si>
+  <si>
+    <t>能力技的Id,查询方式请看这个单元格的批注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -485,6 +518,49 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -498,36 +574,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +614,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -549,8 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,41 +639,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,36 +660,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
@@ -709,31 +742,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,43 +880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,91 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,30 +935,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,11 +965,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,6 +1010,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1041,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1545,7 +1578,7 @@
   <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2005,7 +2038,7 @@
       <formula1>"Cond,Action"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E12 E19 E7:E9 E13:E15 E16:E18 E20:E1048576">
-      <formula1>'#参数说明'!$B$2:$B$11</formula1>
+      <formula1>'#参数说明'!$B$2:$B$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,10 +2051,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2083,7 +2116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="2:4">
+    <row r="6" ht="27" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2134,9 +2167,25 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2145,4 +2194,21 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="2">
+    <comment s:ref="C12" rgbClr="36C1FC"/>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Output/绝巴哈诗人编辑.xlsx
+++ b/Output/绝巴哈诗人编辑.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>作者:</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>#第3组 P2爆发打完关闭爆发</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>#第4组 P3开场开启爆发</t>
@@ -502,9 +505,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -524,7 +527,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,21 +541,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,58 +639,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,44 +663,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
@@ -674,16 +677,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -742,175 +745,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,15 +942,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -967,37 +961,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +985,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1029,145 +1032,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,7 +1581,7 @@
   <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1872,7 +1875,10 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="2:7">
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
@@ -1889,7 +1895,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -1905,7 +1914,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="14"/>
     </row>
@@ -1937,7 +1946,7 @@
         <v>63</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -2069,16 +2078,16 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -2086,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:3">
@@ -2094,37 +2103,37 @@
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="2:4">
@@ -2132,53 +2141,53 @@
         <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -2186,7 +2195,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Output/绝巴哈诗人编辑.xlsx
+++ b/Output/绝巴哈诗人编辑.xlsx
@@ -526,6 +526,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -533,36 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,9 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,31 +625,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,58 +656,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -745,25 +745,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,145 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,6 +924,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -969,8 +984,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,38 +1019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,145 +1032,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1802,7 +1802,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="4">
-        <v>20000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>60000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="4">
-        <v>20000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1932,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>60000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -2040,11 +2040,11 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D11 D12 D19 D8:D9 D13:D15 D16:D18 D20:D1048576">
+      <formula1>"Cond,Action"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>$C$4:$AQ$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D11 D12 D19 D8:D9 D13:D15 D16:D18 D20:D1048576">
-      <formula1>"Cond,Action"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E12 E19 E7:E9 E13:E15 E16:E18 E20:E1048576">
       <formula1>'#参数说明'!$B$2:$B$13</formula1>
